--- a/old_doc/02.要件設計.xlsx
+++ b/old_doc/02.要件設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AttendanceManagement\old_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B6692A-78FD-4CD0-837F-ED91C7A366F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660417A0-FB5D-42B2-8756-4B09A70F4806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{91201281-E8B9-4F52-B1A3-679C7E6D1176}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{91201281-E8B9-4F52-B1A3-679C7E6D1176}"/>
   </bookViews>
   <sheets>
     <sheet name="概念図" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>勤怠管理システムは、Webで出退勤記録・日報管理を行うためのシステムです。</t>
     <rPh sb="0" eb="2">
@@ -319,19 +319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>絞り込み機能</t>
-    <rPh sb="0" eb="1">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出退勤画面側の機能</t>
     <rPh sb="0" eb="3">
       <t>シュッタイキン</t>
@@ -348,56 +335,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤怠一覧画面に配置
-期間を絞り込んで、出勤日数・総勤務時間・残業時間を表示することができる</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シボ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠編集機能</t>
     <rPh sb="0" eb="2">
       <t>キンタイ</t>
@@ -420,14 +357,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部下の配属権限のある社員が部下の勤怠一覧を開いたときにボタンで配置
-ボタンをクリックすることでモーダルが表示され、選択した月度の出勤時間・退勤時間・日報を編集することができる</t>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1115,79 +1044,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤怠一覧を開いたときにボタンで配置
-ボタンをクリックすることでモーダルが表示され、選択した月度の出勤時間・退勤時間・日報を編集することができる</t>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日ごとの出勤時間・退勤時間・休憩時間・実績時間・残業時間・日報を閲覧・編集することができる
-プルダウンで当月から過去1年分の勤怠情報を表示できる</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニッポウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウゲツ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ネンブン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主に社員がパスワードを失念し、直属の上司が不在な場合に使用を想定
 パスワードを強制的に変更することができる</t>
     <rPh sb="0" eb="1">
@@ -1348,43 +1204,281 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理画面</t>
+    <t>部下の配属権限のある社員が部下の勤怠一覧を開いたときにボタンで配置
+ボタンをクリックすることでモーダルが表示され、選択した月度の出勤時間・退勤時間・日報を編集・削除することができる</t>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日ごとの出勤時間・退勤時間・休憩時間・実績時間・残業時間・日報を閲覧・編集・削除することができる
+プルダウンで当月から過去1年分の勤怠情報を表示できる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウゲツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ネンブン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始業時間・終業時間一括変更機能</t>
     <rPh sb="0" eb="2">
-      <t>カンリ</t>
+      <t>シギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面に配置
+時短社員以外の始業時間・終業時間を一括で変更することができる</t>
+    <rPh sb="0" eb="4">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジタン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名簿ダウンロード機能</t>
+    <rPh sb="0" eb="4">
+      <t>シャインメイボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面に配置
+社員名簿をダウンロードすることができる（退職済みの社員を含むかは、チェックボタンで選択可）</t>
+    <rPh sb="0" eb="4">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シャインメイボ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>タイショクズ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員一括登録機能</t>
+    <rPh sb="0" eb="8">
+      <t>シャインイッカツトウロクキノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面に配置
+.xlsxシートに記載した社員情報に基づいて、社員を一括登録ができる</t>
+    <rPh sb="0" eb="4">
+      <t>カンリガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>シャインジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>イッカツトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力機能</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧を開いたときにボタンで配置
+ボタンをクリックすることでモーダルが表示され、選択した月度の出勤時間・退勤時間・日報を編集することができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠一覧画面に配置
+期間を絞り込んで、始業時間・終業時間、労働時間を.xlsxの拡張子で出力することができる（最大30日間）</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時短社員以外の始業時間・終業時間を一括で変更することができる</t>
-    <rPh sb="0" eb="2">
-      <t>ジタン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イガイ</t>
-    </rPh>
     <rPh sb="7" eb="9">
-      <t>シギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウギョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>シギョウジカン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>シュウギョウジカン</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ロウドウジカン</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>カクチョウシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1467,7 +1561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1481,9 +1575,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2019,11 +2110,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>622299</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>155574</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2403475" cy="774700"/>
+    <xdr:ext cx="2403475" cy="873125"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="テキスト ボックス 11">
@@ -2037,8 +2128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1936749" y="4473575"/>
-          <a:ext cx="2403475" cy="774700"/>
+          <a:off x="1993899" y="4956174"/>
+          <a:ext cx="2403475" cy="873125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,6 +2220,65 @@
             </a:rPr>
             <a:t>年）</a:t>
           </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" pitchFamily="18"/>
+              <a:ea typeface="Yu Gothic" pitchFamily="50"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" pitchFamily="18"/>
+              <a:ea typeface="Yu Gothic" pitchFamily="50"/>
+            </a:rPr>
+            <a:t>・出勤簿出力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" pitchFamily="18"/>
+            <a:ea typeface="Yu Gothic" pitchFamily="50"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" rtl="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -2555,12 +2705,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2403475" cy="774700"/>
+    <xdr:ext cx="2403475" cy="904876"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="テキスト ボックス 11">
@@ -2574,8 +2724,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5254625" y="3121025"/>
-          <a:ext cx="2403475" cy="774700"/>
+          <a:off x="5391150" y="3616325"/>
+          <a:ext cx="2403475" cy="904876"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2623,7 +2773,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" rtl="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="2100"/>
             </a:lnSpc>
@@ -2633,8 +2783,12 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
@@ -2666,12 +2820,52 @@
             </a:rPr>
             <a:t>年）</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:latin typeface="Calibri" pitchFamily="18"/>
             <a:ea typeface="Yu Gothic" pitchFamily="50"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・出勤簿出力（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2741,11 +2935,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1851025" cy="1158875"/>
+    <xdr:ext cx="2184400" cy="1358900"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="テキスト ボックス 11">
@@ -2759,8 +2953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="4292600"/>
-          <a:ext cx="1851025" cy="1158875"/>
+          <a:off x="5499100" y="4800600"/>
+          <a:ext cx="2184400" cy="1358900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2861,7 +3055,7 @@
               <a:latin typeface="Calibri" pitchFamily="18"/>
               <a:ea typeface="Yu Gothic" pitchFamily="50"/>
             </a:rPr>
-            <a:t>・出退勤・日報の修正</a:t>
+            <a:t>・出退勤・日報の修正・削除</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
             <a:solidFill>
@@ -2872,7 +3066,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" rtl="0" hangingPunct="1">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPts val="2100"/>
             </a:lnSpc>
@@ -2882,8 +3076,12 @@
             <a:spcAft>
               <a:spcPts val="0"/>
             </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
+            <a:defRPr/>
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
@@ -2895,6 +3093,82 @@
             </a:rPr>
             <a:t>・パスワードの変更</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1200" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・出勤簿出力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" rtl="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -3750,9 +4024,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3603625" cy="1343025"/>
     <xdr:sp macro="" textlink="">
@@ -3768,7 +4042,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="8839200"/>
+          <a:off x="2085975" y="9156700"/>
           <a:ext cx="3603625" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3853,7 +4127,7 @@
               <a:latin typeface="Calibri" pitchFamily="18"/>
               <a:ea typeface="Yu Gothic" pitchFamily="50"/>
             </a:rPr>
-            <a:t>・出退勤・日報の修正</a:t>
+            <a:t>・出退勤・日報の修正・削除</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
             <a:solidFill>
@@ -3887,6 +4161,68 @@
             </a:rPr>
             <a:t>・パスワードの変更</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" pitchFamily="18"/>
+            <a:ea typeface="Yu Gothic" pitchFamily="50"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・出勤簿出力（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" rtl="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="2100"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" sz="1200" b="1" i="0" u="none" strike="noStrike" kern="0" spc="0" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -3903,14 +4239,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3925,8 +4261,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="8283575"/>
-          <a:ext cx="1800225" cy="419100"/>
+          <a:off x="2206625" y="8766175"/>
+          <a:ext cx="1847850" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -3962,9 +4298,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>377825</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1800225" cy="485775"/>
     <xdr:sp macro="" textlink="">
@@ -3980,7 +4316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2349500" y="8001000"/>
+          <a:off x="2384425" y="8483600"/>
           <a:ext cx="1800225" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4035,11 +4371,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>244475</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3333749" cy="885825"/>
+    <xdr:ext cx="3333749" cy="1273175"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="テキスト ボックス 11">
@@ -4053,8 +4389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="901700" y="10410825"/>
-          <a:ext cx="3333749" cy="885825"/>
+          <a:off x="803275" y="10753725"/>
+          <a:ext cx="3333749" cy="1273175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,6 +4463,54 @@
             </a:rPr>
             <a:t>・退職（復職）の処理</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・社員名簿のダウンロード</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・社員の一括登録（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.xlsx)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" hangingPunct="1"/>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4138,15 +4522,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4161,8 +4545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2171700" y="9864725"/>
-          <a:ext cx="1797050" cy="419100"/>
+          <a:off x="2193925" y="10448925"/>
+          <a:ext cx="1844675" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4497,38 +4881,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D97605-6538-4B93-B277-246749F289E7}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="55" spans="12:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L55" t="s">
         <v>4</v>
       </c>
@@ -4543,20 +4927,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9FA496-063D-4B34-AFE1-58F707B12615}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="95.125" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="95.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4565,12 +4949,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -4578,7 +4962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +4970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -4594,169 +4978,185 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+    <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="54" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
+      <c r="C26" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
+    <row r="27" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
+    <row r="28" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="4" t="s">
+    <row r="29" spans="2:3" ht="36" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
         <v>50</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
